--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A907E6B-6236-4B74-B38D-081C2EBFCCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B8E68-1A24-4077-B05A-D08280D3E1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16665" yWindow="1140" windowWidth="11595" windowHeight="13665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="6" r:id="rId1"/>
     <sheet name="digg" sheetId="7" r:id="rId2"/>
+    <sheet name="dds" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">执行参（可输入类型，默认为空）
+- 鼠标点击次数
+- 滑轮滚动单位，正数向上，负数向下
+- 输入文本内容
+- 输入按键内容，支持组合按键
+ enter;ctrl+s;ctrl+alt+enter;s;q
+- 休眠时长
+- 事件集 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配图片路径
+默认可为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件循环次数
+默认1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片匹配相似度
+默认0.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片匹配次数
+默认30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为必要条件
+默认为TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否匹配多个目标
+默认为FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否展示匹配图片
+默认FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/test2/11.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件循环次数
+默认1
+-1代表一致循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/dds/ds.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/dds/start.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>事件（默认为空）
 1：左键点击
@@ -39,61 +108,12 @@
 6：文本输入
 7：按键输入
 8：休眠
-9：事件集类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">执行参（可输入类型，默认为空）
-- 鼠标点击次数
-- 滑轮滚动单位，正数向上，负数向下
-- 输入文本内容
-- 输入按键内容，支持组合按键
- enter;ctrl+s;ctrl+alt+enter;s;q
-- 休眠时长
-- 事件集 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>digg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配图片路径
-默认可为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件循环次数
-默认1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片匹配相似度
-默认0.87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片匹配次数
-默认30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为必要条件
-默认为TRUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否匹配多个目标
-默认为FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否展示匹配图片
-默认FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/test2/11.png</t>
+9: 结束
+10：事件集类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/dds/restart.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,61 +540,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D7464F-F38A-4994-9798-EC1148E15DA8}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.125" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -586,50 +623,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FAE130-B743-4A17-8367-950E7C5CEDF1}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.125" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -640,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3">
         <v>0.89</v>
@@ -650,12 +685,6 @@
       </c>
       <c r="G2" s="3" t="b">
         <v>0</v>
-      </c>
-      <c r="H2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -674,12 +703,100 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.2</v>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B9C79B-8F27-4809-8150-0F2471CAD257}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B8E68-1A24-4077-B05A-D08280D3E1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81775E64-7B0C-40FE-B01F-45F3BA182353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16665" yWindow="1140" windowWidth="11595" windowHeight="13665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="390" windowWidth="17700" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="6" r:id="rId1"/>
@@ -31,17 +31,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
-    <t xml:space="preserve">执行参（可输入类型，默认为空）
-- 鼠标点击次数
-- 滑轮滚动单位，正数向上，负数向下
-- 输入文本内容
-- 输入按键内容，支持组合按键
- enter;ctrl+s;ctrl+alt+enter;s;q
-- 休眠时长
-- 事件集 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>匹配图片路径
 默认可为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +85,10 @@
   </si>
   <si>
     <t>images/dds/start.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/dds/restart.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,11 +102,20 @@
 7：按键输入
 8：休眠
 9: 结束
-10：事件集类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/dds/restart.png</t>
+10：事件集类型
+11: 鼠标移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参（可输入类型，默认为空）
+- 鼠标点击次数
+- 滑轮滚动单位，正数向上，负数向下
+- 输入文本内容
+- 输入按键内容，支持组合按键
+ enter;ctrl+s;ctrl+alt+enter;s;q
+- 休眠时长
+- 事件集
+- 鼠标移动的坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D7464F-F38A-4994-9798-EC1148E15DA8}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,33 +557,33 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -592,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -608,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>-1</v>
@@ -626,7 +628,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -638,33 +640,33 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -675,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3">
         <v>0.89</v>
@@ -714,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B9C79B-8F27-4809-8150-0F2471CAD257}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -727,33 +729,33 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -764,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>0.7</v>
@@ -790,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81775E64-7B0C-40FE-B01F-45F3BA182353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E5A0A-2B45-4B14-AD8C-24D9E76F37B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="555" yWindow="390" windowWidth="17700" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,9 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D7464F-F38A-4994-9798-EC1148E15DA8}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E5A0A-2B45-4B14-AD8C-24D9E76F37B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A55174C-A216-4A8E-AA2C-8F0188AF9E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="390" windowWidth="17700" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="645" windowWidth="17700" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="6" r:id="rId1"/>
     <sheet name="digg" sheetId="7" r:id="rId2"/>
     <sheet name="dds" sheetId="8" r:id="rId3"/>
+    <sheet name="lol" sheetId="10" r:id="rId4"/>
+    <sheet name="lol_2" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>匹配图片路径
 默认可为空</t>
@@ -116,6 +118,22 @@
 - 休眠时长
 - 事件集
 - 鼠标移动的坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lol_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['w','d']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/lol/dead.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D7464F-F38A-4994-9798-EC1148E15DA8}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -804,4 +824,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F81C6D-D24D-4EDD-9E02-AFDF9DC756D3}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EBC212-3078-4EE1-B9ED-4858196870AC}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>